--- a/Templates/TemplateNetwork.xlsx
+++ b/Templates/TemplateNetwork.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zarathos\Desktop\SystemicRisk-master\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zarathos\Desktop\SystemicRisk-master\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86172D47-982B-44E3-B5FB-87FB70319846}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3E0753-8277-4D00-9441-13AFA19890AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1662A4AC-789B-484B-8A0A-B0AEA92A4E1B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="797" xr2:uid="{1662A4AC-789B-484B-8A0A-B0AEA92A4E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>
     <sheet name="Average Adjacency Matrix" sheetId="5" r:id="rId2"/>
     <sheet name="Average Centrality Measures" sheetId="2" r:id="rId3"/>
-    <sheet name="PCA Explained Variances" sheetId="6" r:id="rId4"/>
-    <sheet name="PCA Average Coefficients" sheetId="3" r:id="rId5"/>
-    <sheet name="PCA Average Scores" sheetId="4" r:id="rId6"/>
+    <sheet name="PCA Overall Explained" sheetId="6" r:id="rId4"/>
+    <sheet name="PCA Overall Coefficients" sheetId="3" r:id="rId5"/>
+    <sheet name="PCA Overall Scores" sheetId="4" r:id="rId6"/>
+    <sheet name="Spillovers From" sheetId="7" r:id="rId7"/>
+    <sheet name="Spillovers To" sheetId="8" r:id="rId8"/>
+    <sheet name="Spillovers Net" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,10 +35,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,4 +454,40 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09B0C35-B108-45DA-A1C7-DD2127C1E663}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54CF8D5-B897-4184-94FD-A1AB9F67116B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79262CB4-039B-46CA-8229-99F3E7459197}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>